--- a/libfiles/常用硬件表.xlsx
+++ b/libfiles/常用硬件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" tabRatio="863" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" tabRatio="863" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="硬件检索" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="575">
   <si>
     <t>Digital Input（数字量输入）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1698,110 +1698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/空O1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyO2</t>
-  </si>
-  <si>
-    <t>/EmptyO3</t>
-  </si>
-  <si>
-    <t>/EmptyO4</t>
-  </si>
-  <si>
-    <t>/EmptyO5</t>
-  </si>
-  <si>
-    <t>/EmptyO6</t>
-  </si>
-  <si>
-    <t>/EmptyO7</t>
-  </si>
-  <si>
-    <t>/EmptyO8</t>
-  </si>
-  <si>
-    <t>/EmptyO9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyO10</t>
-  </si>
-  <si>
-    <t>/EmptyO11</t>
-  </si>
-  <si>
-    <t>/EmptyO12</t>
-  </si>
-  <si>
-    <t>/EmptyO13</t>
-  </si>
-  <si>
-    <t>/EmptyO14</t>
-  </si>
-  <si>
-    <t>/EmptyO15</t>
-  </si>
-  <si>
-    <t>/EmptyO16</t>
-  </si>
-  <si>
-    <t>/空I1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/EmptyI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空I2</t>
-  </si>
-  <si>
-    <t>/EmptyI2</t>
-  </si>
-  <si>
-    <t>/空I3</t>
-  </si>
-  <si>
-    <t>/EmptyI3</t>
-  </si>
-  <si>
-    <t>/空I4</t>
-  </si>
-  <si>
-    <t>/EmptyI4</t>
-  </si>
-  <si>
-    <t>/空I5</t>
-  </si>
-  <si>
-    <t>/EmptyI5</t>
-  </si>
-  <si>
-    <t>/空I6</t>
-  </si>
-  <si>
-    <t>/EmptyI6</t>
-  </si>
-  <si>
-    <t>/空I7</t>
-  </si>
-  <si>
-    <t>/EmptyI7</t>
-  </si>
-  <si>
-    <t>/空I8</t>
-  </si>
-  <si>
-    <t>/EmptyI8</t>
-  </si>
-  <si>
     <t>第一段温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1918,54 +1814,6 @@
     <t>Zone 8 Heat</t>
   </si>
   <si>
-    <t>/空I9</t>
-  </si>
-  <si>
-    <t>/EmptyI9</t>
-  </si>
-  <si>
-    <t>/空I10</t>
-  </si>
-  <si>
-    <t>/EmptyI10</t>
-  </si>
-  <si>
-    <t>/空I11</t>
-  </si>
-  <si>
-    <t>/EmptyI11</t>
-  </si>
-  <si>
-    <t>/空I12</t>
-  </si>
-  <si>
-    <t>/EmptyI12</t>
-  </si>
-  <si>
-    <t>/空I13</t>
-  </si>
-  <si>
-    <t>/EmptyI13</t>
-  </si>
-  <si>
-    <t>/空I14</t>
-  </si>
-  <si>
-    <t>/EmptyI14</t>
-  </si>
-  <si>
-    <t>/空I15</t>
-  </si>
-  <si>
-    <t>/EmptyI15</t>
-  </si>
-  <si>
-    <t>/空I16</t>
-  </si>
-  <si>
-    <t>/EmptyI16</t>
-  </si>
-  <si>
     <t>/空AO1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2058,65 +1906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/空O5</t>
-  </si>
-  <si>
-    <t>/空O5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空O2</t>
-  </si>
-  <si>
-    <t>/空O3</t>
-  </si>
-  <si>
-    <t>/空O4</t>
-  </si>
-  <si>
-    <t>/空O6</t>
-  </si>
-  <si>
-    <t>/空O7</t>
-  </si>
-  <si>
-    <t>/空O8</t>
-  </si>
-  <si>
-    <t>/空O1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空O9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空O10</t>
-  </si>
-  <si>
-    <t>/空O11</t>
-  </si>
-  <si>
-    <t>/空O12</t>
-  </si>
-  <si>
-    <t>/空O13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/空O14</t>
-  </si>
-  <si>
-    <t>/空O15</t>
-  </si>
-  <si>
-    <t>/空O16</t>
-  </si>
-  <si>
-    <t>/空O5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/空AI5</t>
   </si>
   <si>
@@ -2228,6 +2017,310 @@
   </si>
   <si>
     <t>TO8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI1</t>
+  </si>
+  <si>
+    <t>/空DI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI2</t>
+  </si>
+  <si>
+    <t>/空DI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI1</t>
+  </si>
+  <si>
+    <t>/EmptyDI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI2</t>
+  </si>
+  <si>
+    <t>/EmptyDI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI3</t>
+  </si>
+  <si>
+    <t>/EmptyDI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI4</t>
+  </si>
+  <si>
+    <t>/EmptyDI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI3</t>
+  </si>
+  <si>
+    <t>/空DI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI4</t>
+  </si>
+  <si>
+    <t>/空DI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI5</t>
+  </si>
+  <si>
+    <t>/空DI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI6</t>
+  </si>
+  <si>
+    <t>/空DI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI7</t>
+  </si>
+  <si>
+    <t>/空DI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI8</t>
+  </si>
+  <si>
+    <t>/空DI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI5</t>
+  </si>
+  <si>
+    <t>/EmptyDI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI6</t>
+  </si>
+  <si>
+    <t>/EmptyDI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI7</t>
+  </si>
+  <si>
+    <t>/EmptyDI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI8</t>
+  </si>
+  <si>
+    <t>/EmptyDI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EmptyDI16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/空DO1</t>
+  </si>
+  <si>
+    <t>/空DO2</t>
+  </si>
+  <si>
+    <t>/空DO3</t>
+  </si>
+  <si>
+    <t>/空DO4</t>
+  </si>
+  <si>
+    <t>/空DO5</t>
+  </si>
+  <si>
+    <t>/空DO6</t>
+  </si>
+  <si>
+    <t>/空DO7</t>
+  </si>
+  <si>
+    <t>/空DO8</t>
+  </si>
+  <si>
+    <t>/空DO9</t>
+  </si>
+  <si>
+    <t>/空DO10</t>
+  </si>
+  <si>
+    <t>/空DO11</t>
+  </si>
+  <si>
+    <t>/空DO12</t>
+  </si>
+  <si>
+    <t>/空DO13</t>
+  </si>
+  <si>
+    <t>/空DO14</t>
+  </si>
+  <si>
+    <t>/空DO15</t>
+  </si>
+  <si>
+    <t>/空DO16</t>
+  </si>
+  <si>
+    <t>/EmptyDO1</t>
+  </si>
+  <si>
+    <t>/EmptyDO2</t>
+  </si>
+  <si>
+    <t>/EmptyDO3</t>
+  </si>
+  <si>
+    <t>/EmptyDO4</t>
+  </si>
+  <si>
+    <t>/EmptyDO5</t>
+  </si>
+  <si>
+    <t>/EmptyDO6</t>
+  </si>
+  <si>
+    <t>/EmptyDO7</t>
+  </si>
+  <si>
+    <t>/EmptyDO8</t>
+  </si>
+  <si>
+    <t>/EmptyDO9</t>
+  </si>
+  <si>
+    <t>/EmptyDO10</t>
+  </si>
+  <si>
+    <t>/EmptyDO11</t>
+  </si>
+  <si>
+    <t>/EmptyDO12</t>
+  </si>
+  <si>
+    <t>/EmptyDO13</t>
+  </si>
+  <si>
+    <t>/EmptyDO14</t>
+  </si>
+  <si>
+    <t>/EmptyDO15</t>
+  </si>
+  <si>
+    <t>/EmptyDO16</t>
+  </si>
+  <si>
+    <t>/EmptyIO1</t>
+  </si>
+  <si>
+    <t>/EmptyIO2</t>
+  </si>
+  <si>
+    <t>/EmptyIO3</t>
+  </si>
+  <si>
+    <t>/EmptyIO4</t>
+  </si>
+  <si>
+    <t>/EmptyIO5</t>
+  </si>
+  <si>
+    <t>/EmptyIO6</t>
+  </si>
+  <si>
+    <t>/EmptyIO7</t>
+  </si>
+  <si>
+    <t>/EmptyIO8</t>
+  </si>
+  <si>
+    <t>/EmptyDI1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2542,10 +2635,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -7447,8 +7540,8 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7511,10 +7604,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -7555,10 +7648,10 @@
         <v>63</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -7611,10 +7704,10 @@
         <v>70</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -7639,10 +7732,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>417</v>
+        <v>574</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -7651,10 +7744,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -7663,10 +7756,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -7675,10 +7768,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -7695,10 +7788,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>425</v>
+        <v>510</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -7707,10 +7800,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -7719,10 +7812,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>428</v>
+        <v>505</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -7731,10 +7824,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>430</v>
+        <v>507</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -7759,10 +7852,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>399</v>
+        <v>534</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -7771,10 +7864,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -7783,10 +7876,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -7795,10 +7888,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>403</v>
+        <v>553</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -7813,10 +7906,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -7825,10 +7918,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>405</v>
+        <v>555</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -7837,10 +7930,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>406</v>
+        <v>556</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -7849,10 +7942,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -8000,10 +8093,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -8044,10 +8137,10 @@
         <v>63</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -8096,10 +8189,10 @@
         <v>86</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -8140,10 +8233,10 @@
         <v>88</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -8192,10 +8285,10 @@
         <v>91</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -8236,10 +8329,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -8288,10 +8381,10 @@
         <v>96</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -8332,10 +8425,10 @@
         <v>98</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -8404,10 +8497,10 @@
         <v>70</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -8428,10 +8521,10 @@
         <v>71</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="D46" s="9"/>
     </row>
@@ -8452,10 +8545,10 @@
         <v>100</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="D48" s="9"/>
     </row>
@@ -8476,15 +8569,26 @@
         <v>101</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="D50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A4:D4"/>
@@ -8492,17 +8596,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8517,7 +8610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
@@ -8579,62 +8672,62 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>432</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>433</v>
+        <v>399</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>400</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
       <c r="B7" s="46"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>435</v>
+        <v>401</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>402</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="52"/>
+        <v>464</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>437</v>
+        <v>403</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>404</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="52"/>
+        <v>466</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
@@ -8647,62 +8740,62 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>438</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>439</v>
+        <v>405</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>406</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>441</v>
+        <v>407</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>408</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>443</v>
+        <v>409</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>410</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
@@ -8715,52 +8808,52 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>445</v>
+        <v>411</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>412</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>447</v>
+        <v>413</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>414</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="52"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="55" t="s">
         <v>109</v>
       </c>
       <c r="D24" s="9"/>
@@ -8769,8 +8862,8 @@
       <c r="A25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
@@ -8791,49 +8884,49 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -8847,49 +8940,49 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -8927,6 +9020,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A4:D4"/>
@@ -8934,19 +9040,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9026,10 +9119,10 @@
         <v>165</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -9046,10 +9139,10 @@
         <v>168</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -9066,10 +9159,10 @@
         <v>170</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -9094,10 +9187,10 @@
         <v>172</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -9114,10 +9207,10 @@
         <v>174</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -9134,10 +9227,10 @@
         <v>176</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -9162,10 +9255,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -9182,10 +9275,10 @@
         <v>180</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -9223,13 +9316,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B22:B23"/>
@@ -9240,6 +9326,13 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11758,9 +11851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:C9"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11823,10 +11916,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>416</v>
+        <v>486</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -11835,10 +11928,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -11847,10 +11940,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -11859,10 +11952,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -11877,10 +11970,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>425</v>
+        <v>510</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -11889,10 +11982,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -11901,10 +11994,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -11913,10 +12006,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -11931,10 +12024,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -11943,10 +12036,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -11955,10 +12048,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -11967,10 +12060,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -11985,10 +12078,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -11997,10 +12090,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -12009,10 +12102,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -12021,10 +12114,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -12103,7 +12196,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:C14"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12166,10 +12259,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>416</v>
+        <v>533</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -12178,10 +12271,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -12190,10 +12283,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -12202,10 +12295,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -12220,10 +12313,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>425</v>
+        <v>510</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -12232,10 +12325,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -12244,10 +12337,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -12256,10 +12349,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -12274,10 +12367,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -12286,10 +12379,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -12298,10 +12391,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -12310,10 +12403,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -12328,10 +12421,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -12340,10 +12433,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -12352,10 +12445,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -12364,10 +12457,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -12446,7 +12539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12510,10 +12603,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -12522,10 +12615,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -12534,10 +12627,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -12546,10 +12639,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>403</v>
+        <v>553</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -12564,10 +12657,10 @@
         <v>34</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -12576,10 +12669,10 @@
         <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>405</v>
+        <v>555</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -12588,10 +12681,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>406</v>
+        <v>556</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -12600,10 +12693,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -12618,10 +12711,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>408</v>
+        <v>558</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -12630,10 +12723,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>409</v>
+        <v>559</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -12642,10 +12735,10 @@
         <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>410</v>
+        <v>560</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -12654,10 +12747,10 @@
         <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>411</v>
+        <v>561</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -12672,10 +12765,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>412</v>
+        <v>562</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -12684,10 +12777,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>413</v>
+        <v>563</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -12696,10 +12789,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>414</v>
+        <v>564</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -12708,10 +12801,10 @@
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>415</v>
+        <v>565</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -12789,7 +12882,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12852,10 +12945,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -12864,10 +12957,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>419</v>
+        <v>491</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -12876,10 +12969,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -12888,10 +12981,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>423</v>
+        <v>495</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -12906,10 +12999,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -12918,10 +13011,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>427</v>
+        <v>511</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -12930,10 +13023,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>428</v>
+        <v>505</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -12942,10 +13035,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>430</v>
+        <v>507</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -12970,10 +13063,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>399</v>
+        <v>534</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -12982,10 +13075,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -12994,10 +13087,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -13006,10 +13099,10 @@
         <v>33</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>403</v>
+        <v>553</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -13024,10 +13117,10 @@
         <v>34</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -13036,10 +13129,10 @@
         <v>35</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>405</v>
+        <v>555</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -13048,10 +13141,10 @@
         <v>36</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>406</v>
+        <v>556</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -13060,10 +13153,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -13142,8 +13235,8 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13207,10 +13300,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -13227,10 +13320,10 @@
         <v>63</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -13247,10 +13340,10 @@
         <v>65</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -13303,10 +13396,10 @@
         <v>70</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -13327,10 +13420,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -13355,10 +13448,10 @@
         <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>417</v>
+        <v>566</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -13367,10 +13460,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>419</v>
+        <v>567</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -13379,10 +13472,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>421</v>
+        <v>568</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -13391,10 +13484,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>423</v>
+        <v>569</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -13403,10 +13496,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>425</v>
+        <v>570</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -13415,10 +13508,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>427</v>
+        <v>571</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -13427,10 +13520,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>428</v>
+        <v>505</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>429</v>
+        <v>572</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -13439,10 +13532,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>430</v>
+        <v>507</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>431</v>
+        <v>573</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -13467,10 +13560,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>399</v>
+        <v>534</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -13479,10 +13572,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -13491,10 +13584,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -13503,10 +13596,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>403</v>
+        <v>553</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -13515,10 +13608,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -13527,10 +13620,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>405</v>
+        <v>555</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -13539,10 +13632,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>406</v>
+        <v>556</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -13551,10 +13644,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="D37" s="9"/>
     </row>

--- a/libfiles/常用硬件表.xlsx
+++ b/libfiles/常用硬件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" tabRatio="863" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="14808" windowHeight="7896" tabRatio="863" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="硬件检索" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="568">
   <si>
     <t>Digital Input（数字量输入）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2296,28 +2296,8 @@
     <t>/EmptyDO16</t>
   </si>
   <si>
-    <t>/EmptyIO1</t>
-  </si>
-  <si>
-    <t>/EmptyIO2</t>
-  </si>
-  <si>
-    <t>/EmptyIO3</t>
-  </si>
-  <si>
-    <t>/EmptyIO4</t>
-  </si>
-  <si>
-    <t>/EmptyIO5</t>
-  </si>
-  <si>
-    <t>/EmptyIO6</t>
-  </si>
-  <si>
-    <t>/EmptyIO7</t>
-  </si>
-  <si>
-    <t>/EmptyIO8</t>
+    <t>/EmptyDI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/EmptyDI1</t>
@@ -2635,10 +2615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -7735,7 +7715,7 @@
         <v>485</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -8578,17 +8558,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A4:D4"/>
@@ -8596,6 +8565,17 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8677,7 +8657,7 @@
       <c r="B6" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>400</v>
       </c>
       <c r="D6" s="9"/>
@@ -8687,7 +8667,7 @@
         <v>462</v>
       </c>
       <c r="B7" s="46"/>
-      <c r="C7" s="53"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:6">
@@ -8697,7 +8677,7 @@
       <c r="B8" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>402</v>
       </c>
       <c r="D8" s="9"/>
@@ -8706,8 +8686,8 @@
       <c r="A9" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:6">
@@ -8717,7 +8697,7 @@
       <c r="B10" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>404</v>
       </c>
       <c r="D10" s="9"/>
@@ -8726,8 +8706,8 @@
       <c r="A11" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6">
@@ -8745,7 +8725,7 @@
       <c r="B13" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>406</v>
       </c>
       <c r="D13" s="9"/>
@@ -8755,7 +8735,7 @@
         <v>468</v>
       </c>
       <c r="B14" s="46"/>
-      <c r="C14" s="53"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:6">
@@ -8765,7 +8745,7 @@
       <c r="B15" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>408</v>
       </c>
       <c r="D15" s="9"/>
@@ -8775,7 +8755,7 @@
         <v>470</v>
       </c>
       <c r="B16" s="46"/>
-      <c r="C16" s="53"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
@@ -8785,7 +8765,7 @@
       <c r="B17" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>410</v>
       </c>
       <c r="D17" s="9"/>
@@ -8795,7 +8775,7 @@
         <v>472</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="53"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
@@ -8813,7 +8793,7 @@
       <c r="B20" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="52" t="s">
         <v>412</v>
       </c>
       <c r="D20" s="9"/>
@@ -8823,7 +8803,7 @@
         <v>474</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="53"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
@@ -8833,7 +8813,7 @@
       <c r="B22" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="52" t="s">
         <v>414</v>
       </c>
       <c r="D22" s="9"/>
@@ -8843,17 +8823,17 @@
         <v>476</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="53"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>109</v>
       </c>
       <c r="D24" s="9"/>
@@ -8862,8 +8842,8 @@
       <c r="A25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
@@ -9020,6 +9000,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -9027,19 +9020,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9316,6 +9296,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B22:B23"/>
@@ -9326,13 +9313,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11851,7 +11831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
@@ -13234,9 +13214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13451,7 +13431,7 @@
         <v>485</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -13463,7 +13443,7 @@
         <v>487</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>567</v>
+        <v>491</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -13475,7 +13455,7 @@
         <v>497</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -13487,7 +13467,7 @@
         <v>499</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -13499,7 +13479,7 @@
         <v>501</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -13511,7 +13491,7 @@
         <v>503</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -13523,7 +13503,7 @@
         <v>505</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -13535,7 +13515,7 @@
         <v>507</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="D27" s="9"/>
     </row>
